--- a/user-data/displacement/displacement.xlsx
+++ b/user-data/displacement/displacement.xlsx
@@ -36,376 +36,1114 @@
     <t xml:space="preserve">value-4</t>
   </si>
   <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anguilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BES Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayman Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks &amp; Caicos Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">AF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua &amp; Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anguilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BES Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
     <t xml:space="preserve">GB</t>
@@ -414,726 +1152,6 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">GD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cayman Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turks &amp; Caicos Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">US</t>
   </si>
   <si>
@@ -1152,10 +1170,10 @@
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
-    <t xml:space="preserve">VC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
     <t xml:space="preserve">VE</t>
@@ -1164,40 +1182,22 @@
     <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
     <t xml:space="preserve">VG</t>
   </si>
   <si>
     <t xml:space="preserve">Virgin Islands (GB)</t>
   </si>
   <si>
-    <t xml:space="preserve">VN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">YE</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1696,16 +1696,16 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>663</v>
+        <v>257554</v>
       </c>
       <c r="E2" t="n">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1174306</v>
       </c>
       <c r="G2" t="n">
-        <v>1084</v>
+        <v>1431942</v>
       </c>
     </row>
     <row r="3">
@@ -1719,16 +1719,16 @@
         <v>2015</v>
       </c>
       <c r="D3" t="n">
-        <v>257554</v>
+        <v>104</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>830</v>
       </c>
       <c r="F3" t="n">
-        <v>1174306</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1431942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4">
@@ -1742,16 +1742,16 @@
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>94182</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6593</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>100775</v>
       </c>
     </row>
     <row r="5">
@@ -1765,16 +1765,16 @@
         <v>2015</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>15555</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>30143</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="6">
@@ -1788,16 +1788,16 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1811,16 +1811,16 @@
         <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>19319</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19385</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1834,16 +1834,16 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>15555</v>
+        <v>3207</v>
       </c>
       <c r="E8" t="n">
-        <v>30143</v>
+        <v>1077</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>45698</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="9">
@@ -1857,16 +1857,16 @@
         <v>2015</v>
       </c>
       <c r="D9" t="n">
-        <v>3207</v>
+        <v>19319</v>
       </c>
       <c r="E9" t="n">
-        <v>1077</v>
+        <v>66</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4284</v>
+        <v>19385</v>
       </c>
     </row>
     <row r="10">
@@ -1880,16 +1880,16 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>72216</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>80075</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152291</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1926,16 +1926,16 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>72216</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>80075</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>152291</v>
       </c>
     </row>
     <row r="13">
@@ -1972,16 +1972,16 @@
         <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>6798</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>98324</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>105145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1995,16 +1995,16 @@
         <v>2015</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
@@ -2041,16 +2041,16 @@
         <v>2015</v>
       </c>
       <c r="D17" t="n">
-        <v>35314</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>36009</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>71323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2064,16 +2064,16 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>34017</v>
+        <v>1809</v>
       </c>
       <c r="E18" t="n">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>34160</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="19">
@@ -2087,16 +2087,16 @@
         <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>16557</v>
+        <v>35314</v>
       </c>
       <c r="E19" t="n">
-        <v>9499</v>
+        <v>36009</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26056</v>
+        <v>71323</v>
       </c>
     </row>
     <row r="20">
@@ -2110,16 +2110,16 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
-        <v>113</v>
+        <v>720</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>360</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21">
@@ -2133,16 +2133,16 @@
         <v>2015</v>
       </c>
       <c r="D21" t="n">
-        <v>53363</v>
+        <v>530</v>
       </c>
       <c r="E21" t="n">
-        <v>2931</v>
+        <v>178</v>
       </c>
       <c r="F21" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>81294</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22">
@@ -2156,16 +2156,16 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2179,7 +2179,7 @@
         <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
     </row>
     <row r="24">
@@ -2202,16 +2202,16 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>775</v>
+        <v>6798</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>98324</v>
       </c>
       <c r="G24" t="n">
-        <v>775</v>
+        <v>105145</v>
       </c>
     </row>
     <row r="25">
@@ -2225,16 +2225,16 @@
         <v>2015</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="26">
@@ -2271,16 +2271,16 @@
         <v>2015</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2294,16 +2294,16 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>2130</v>
+        <v>16557</v>
       </c>
       <c r="E28" t="n">
-        <v>135</v>
+        <v>9499</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2265</v>
+        <v>26056</v>
       </c>
     </row>
     <row r="29">
@@ -2317,16 +2317,16 @@
         <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>1809</v>
+        <v>34017</v>
       </c>
       <c r="E29" t="n">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2088</v>
+        <v>34160</v>
       </c>
     </row>
     <row r="30">
@@ -2340,16 +2340,16 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>53363</v>
       </c>
       <c r="E30" t="n">
-        <v>720</v>
+        <v>2931</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G30" t="n">
-        <v>755</v>
+        <v>81294</v>
       </c>
     </row>
     <row r="31">
@@ -2363,16 +2363,16 @@
         <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>135888</v>
+        <v>76</v>
       </c>
       <c r="E31" t="n">
-        <v>19642</v>
+        <v>27</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155530</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
@@ -2386,16 +2386,16 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>383095</v>
+        <v>342973</v>
       </c>
       <c r="E32" t="n">
-        <v>983</v>
+        <v>5373</v>
       </c>
       <c r="F32" t="n">
-        <v>1555112</v>
+        <v>92657</v>
       </c>
       <c r="G32" t="n">
-        <v>1939190</v>
+        <v>441003</v>
       </c>
     </row>
     <row r="33">
@@ -2409,16 +2409,16 @@
         <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>7330</v>
+        <v>135888</v>
       </c>
       <c r="E33" t="n">
-        <v>334</v>
+        <v>19642</v>
       </c>
       <c r="F33" t="n">
-        <v>216392</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>224056</v>
+        <v>155530</v>
       </c>
     </row>
     <row r="34">
@@ -2432,16 +2432,16 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>44955</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4342</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>49297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2455,16 +2455,16 @@
         <v>2015</v>
       </c>
       <c r="D35" t="n">
-        <v>73336</v>
+        <v>7330</v>
       </c>
       <c r="E35" t="n">
-        <v>32701</v>
+        <v>334</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>216392</v>
       </c>
       <c r="G35" t="n">
-        <v>106037</v>
+        <v>224056</v>
       </c>
     </row>
     <row r="36">
@@ -2478,16 +2478,16 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>1980</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>649</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>308272</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>310901</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -2501,16 +2501,16 @@
         <v>2015</v>
       </c>
       <c r="D37" t="n">
-        <v>1849</v>
+        <v>369540</v>
       </c>
       <c r="E37" t="n">
-        <v>1064</v>
+        <v>2898</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>51999</v>
       </c>
       <c r="G37" t="n">
-        <v>2913</v>
+        <v>424437</v>
       </c>
     </row>
     <row r="38">
@@ -2524,16 +2524,16 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>342973</v>
+        <v>1849</v>
       </c>
       <c r="E38" t="n">
-        <v>5373</v>
+        <v>1064</v>
       </c>
       <c r="F38" t="n">
-        <v>92657</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>441003</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="39">
@@ -2593,16 +2593,16 @@
         <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>3616</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2616,16 +2616,16 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>303</v>
+        <v>44955</v>
       </c>
       <c r="E42" t="n">
-        <v>25</v>
+        <v>4342</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>328</v>
+        <v>49297</v>
       </c>
     </row>
     <row r="43">
@@ -2639,16 +2639,16 @@
         <v>2015</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3616</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3283</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="44">
@@ -2662,16 +2662,16 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>48</v>
+        <v>1980</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>649</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>308272</v>
       </c>
       <c r="G44" t="n">
-        <v>78</v>
+        <v>310901</v>
       </c>
     </row>
     <row r="45">
@@ -2685,16 +2685,16 @@
         <v>2015</v>
       </c>
       <c r="D45" t="n">
-        <v>7067</v>
+        <v>522</v>
       </c>
       <c r="E45" t="n">
-        <v>2252</v>
+        <v>53</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>9319</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46">
@@ -2708,16 +2708,16 @@
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>3644</v>
+        <v>303</v>
       </c>
       <c r="E46" t="n">
-        <v>659</v>
+        <v>25</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47">
@@ -2731,16 +2731,16 @@
         <v>2015</v>
       </c>
       <c r="D47" t="n">
-        <v>316115</v>
+        <v>48</v>
       </c>
       <c r="E47" t="n">
-        <v>420625</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>736740</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -2754,16 +2754,16 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>19365</v>
+        <v>7067</v>
       </c>
       <c r="E48" t="n">
-        <v>2641</v>
+        <v>2252</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>22006</v>
+        <v>9319</v>
       </c>
     </row>
     <row r="49">
@@ -2777,16 +2777,16 @@
         <v>2015</v>
       </c>
       <c r="D49" t="n">
-        <v>27326</v>
+        <v>3644</v>
       </c>
       <c r="E49" t="n">
-        <v>2948</v>
+        <v>659</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>30274</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="50">
@@ -2800,16 +2800,16 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>27326</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>2948</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>30274</v>
       </c>
     </row>
     <row r="51">
@@ -2823,16 +2823,16 @@
         <v>2015</v>
       </c>
       <c r="D51" t="n">
-        <v>615</v>
+        <v>19365</v>
       </c>
       <c r="E51" t="n">
-        <v>758</v>
+        <v>2641</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1373</v>
+        <v>22006</v>
       </c>
     </row>
     <row r="52">
@@ -2846,16 +2846,16 @@
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>94182</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>6593</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>100775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2869,16 +2869,16 @@
         <v>2015</v>
       </c>
       <c r="D53" t="n">
-        <v>121535</v>
+        <v>615</v>
       </c>
       <c r="E53" t="n">
-        <v>11583</v>
+        <v>758</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>133118</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="54">
@@ -2892,16 +2892,16 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>168</v>
+        <v>383095</v>
       </c>
       <c r="E54" t="n">
-        <v>86</v>
+        <v>983</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1555112</v>
       </c>
       <c r="G54" t="n">
-        <v>254</v>
+        <v>1939190</v>
       </c>
     </row>
     <row r="55">
@@ -2915,16 +2915,16 @@
         <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>212500</v>
+        <v>121535</v>
       </c>
       <c r="E55" t="n">
-        <v>38171</v>
+        <v>11583</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>250671</v>
+        <v>133118</v>
       </c>
     </row>
     <row r="56">
@@ -2938,16 +2938,16 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>2549</v>
+        <v>212500</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>38171</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2550</v>
+        <v>250671</v>
       </c>
     </row>
     <row r="57">
@@ -2961,16 +2961,16 @@
         <v>2015</v>
       </c>
       <c r="D57" t="n">
-        <v>5798</v>
+        <v>48</v>
       </c>
       <c r="E57" t="n">
-        <v>11020</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>16818</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
@@ -2984,16 +2984,16 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>736086</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>738217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3007,16 +3007,16 @@
         <v>2015</v>
       </c>
       <c r="D59" t="n">
-        <v>12703</v>
+        <v>2549</v>
       </c>
       <c r="E59" t="n">
-        <v>24366</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>37069</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="60">
@@ -3030,16 +3030,16 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61">
@@ -3053,16 +3053,16 @@
         <v>2015</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>736086</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>2131</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>14</v>
+        <v>738217</v>
       </c>
     </row>
     <row r="62">
@@ -3076,16 +3076,16 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>273126</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>63057</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>336183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -3099,16 +3099,16 @@
         <v>2015</v>
       </c>
       <c r="D63" t="n">
-        <v>943</v>
+        <v>12703</v>
       </c>
       <c r="E63" t="n">
-        <v>1941</v>
+        <v>24366</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>2884</v>
+        <v>37069</v>
       </c>
     </row>
     <row r="64">
@@ -3122,16 +3122,16 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>123067</v>
+        <v>273126</v>
       </c>
       <c r="E64" t="n">
-        <v>45870</v>
+        <v>63057</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>168937</v>
+        <v>336183</v>
       </c>
     </row>
     <row r="65">
@@ -3145,16 +3145,16 @@
         <v>2015</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>943</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1941</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="66">
@@ -3168,16 +3168,16 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>1979</v>
+        <v>7854</v>
       </c>
       <c r="E66" t="n">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>268416</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>271128</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="67">
@@ -3191,16 +3191,16 @@
         <v>2015</v>
       </c>
       <c r="D67" t="n">
-        <v>17406</v>
+        <v>1979</v>
       </c>
       <c r="E67" t="n">
-        <v>1859</v>
+        <v>733</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>268416</v>
       </c>
       <c r="G67" t="n">
-        <v>19265</v>
+        <v>271128</v>
       </c>
     </row>
     <row r="68">
@@ -3214,16 +3214,16 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>7854</v>
+        <v>316115</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>420625</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>7854</v>
+        <v>736740</v>
       </c>
     </row>
     <row r="69">
@@ -3237,16 +3237,16 @@
         <v>2015</v>
       </c>
       <c r="D69" t="n">
-        <v>8839</v>
+        <v>17406</v>
       </c>
       <c r="E69" t="n">
-        <v>198</v>
+        <v>1859</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>9037</v>
+        <v>19265</v>
       </c>
     </row>
     <row r="70">
@@ -3260,16 +3260,16 @@
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>30239</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>26141</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>56380</v>
       </c>
     </row>
     <row r="71">
@@ -3283,16 +3283,16 @@
         <v>2015</v>
       </c>
       <c r="D71" t="n">
-        <v>30239</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>26141</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>56380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3329,16 +3329,16 @@
         <v>2015</v>
       </c>
       <c r="D73" t="n">
-        <v>8684</v>
+        <v>8839</v>
       </c>
       <c r="E73" t="n">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>8807</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="74">
@@ -3352,16 +3352,16 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>8684</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>8807</v>
       </c>
     </row>
     <row r="75">
@@ -3375,16 +3375,16 @@
         <v>2015</v>
       </c>
       <c r="D75" t="n">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>2315</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2448</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -3398,16 +3398,16 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>174000</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>174039</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -3421,16 +3421,16 @@
         <v>2015</v>
       </c>
       <c r="D77" t="n">
-        <v>522</v>
+        <v>30</v>
       </c>
       <c r="E77" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>174000</v>
       </c>
       <c r="G77" t="n">
-        <v>575</v>
+        <v>174039</v>
       </c>
     </row>
     <row r="78">
@@ -3444,16 +3444,16 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="E78" t="n">
-        <v>11</v>
+        <v>2315</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>14</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="79">
@@ -3490,16 +3490,16 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>5957</v>
+        <v>179</v>
       </c>
       <c r="E80" t="n">
-        <v>7591</v>
+        <v>161</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>13548</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81">
@@ -3513,16 +3513,16 @@
         <v>2015</v>
       </c>
       <c r="D81" t="n">
-        <v>6125</v>
+        <v>201381</v>
       </c>
       <c r="E81" t="n">
-        <v>5055</v>
+        <v>6480</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>11180</v>
+        <v>207861</v>
       </c>
     </row>
     <row r="82">
@@ -3536,16 +3536,16 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>38500</v>
+        <v>5957</v>
       </c>
       <c r="E82" t="n">
-        <v>6591</v>
+        <v>7591</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>45091</v>
+        <v>13548</v>
       </c>
     </row>
     <row r="83">
@@ -3559,16 +3559,16 @@
         <v>2015</v>
       </c>
       <c r="D83" t="n">
-        <v>201381</v>
+        <v>979437</v>
       </c>
       <c r="E83" t="n">
-        <v>6480</v>
+        <v>42</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>207861</v>
+        <v>979479</v>
       </c>
     </row>
     <row r="84">
@@ -3605,16 +3605,16 @@
         <v>2015</v>
       </c>
       <c r="D85" t="n">
-        <v>979437</v>
+        <v>6125</v>
       </c>
       <c r="E85" t="n">
-        <v>42</v>
+        <v>5055</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>979479</v>
+        <v>11180</v>
       </c>
     </row>
     <row r="86">
@@ -3628,16 +3628,16 @@
         <v>2015</v>
       </c>
       <c r="D86" t="n">
-        <v>179</v>
+        <v>38500</v>
       </c>
       <c r="E86" t="n">
-        <v>161</v>
+        <v>6591</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>340</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="87">
@@ -3697,16 +3697,16 @@
         <v>2015</v>
       </c>
       <c r="D89" t="n">
-        <v>2781479</v>
+        <v>2474</v>
       </c>
       <c r="E89" t="n">
-        <v>24935</v>
+        <v>13831</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2806414</v>
+        <v>16305</v>
       </c>
     </row>
     <row r="90">
@@ -3720,16 +3720,16 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>2474</v>
+        <v>2781479</v>
       </c>
       <c r="E90" t="n">
-        <v>13831</v>
+        <v>24935</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>16305</v>
+        <v>2806414</v>
       </c>
     </row>
     <row r="91">
@@ -3743,16 +3743,16 @@
         <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>553912</v>
+        <v>708</v>
       </c>
       <c r="E91" t="n">
-        <v>39969</v>
+        <v>97</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>593881</v>
+        <v>805</v>
       </c>
     </row>
     <row r="92">
@@ -3766,16 +3766,16 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>354</v>
+        <v>553912</v>
       </c>
       <c r="E92" t="n">
-        <v>158</v>
+        <v>39969</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>512</v>
+        <v>593881</v>
       </c>
     </row>
     <row r="93">
@@ -3789,16 +3789,16 @@
         <v>2015</v>
       </c>
       <c r="D93" t="n">
-        <v>76</v>
+        <v>1463</v>
       </c>
       <c r="E93" t="n">
-        <v>27</v>
+        <v>5442</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>103</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="94">
@@ -3812,16 +3812,16 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="95">
@@ -3835,16 +3835,16 @@
         <v>2015</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96">
@@ -3858,16 +3858,16 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>1463</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>5442</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>6905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3881,16 +3881,16 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>741</v>
+        <v>208</v>
       </c>
       <c r="E97" t="n">
-        <v>900</v>
+        <v>179</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1641</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98">
@@ -3904,16 +3904,16 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>1523523</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>12139</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>16</v>
+        <v>1535662</v>
       </c>
     </row>
     <row r="99">
@@ -3927,16 +3927,16 @@
         <v>2015</v>
       </c>
       <c r="D99" t="n">
-        <v>708</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>805</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
@@ -3950,16 +3950,16 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>36505</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>36520</v>
       </c>
     </row>
     <row r="101">
@@ -3973,16 +3973,16 @@
         <v>2015</v>
       </c>
       <c r="D101" t="n">
-        <v>1523523</v>
+        <v>9305</v>
       </c>
       <c r="E101" t="n">
-        <v>12139</v>
+        <v>27479</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>434869</v>
       </c>
       <c r="G101" t="n">
-        <v>1535662</v>
+        <v>471653</v>
       </c>
     </row>
     <row r="102">
@@ -3996,16 +3996,16 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103">
@@ -4019,16 +4019,16 @@
         <v>2015</v>
       </c>
       <c r="D103" t="n">
-        <v>150</v>
+        <v>1093</v>
       </c>
       <c r="E103" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>247</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="104">
@@ -4042,16 +4042,16 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>784</v>
+        <v>1332</v>
       </c>
       <c r="E104" t="n">
-        <v>608</v>
+        <v>2395</v>
       </c>
       <c r="F104" t="n">
-        <v>44934</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>46326</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="105">
@@ -4065,16 +4065,16 @@
         <v>2015</v>
       </c>
       <c r="D105" t="n">
-        <v>36505</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>36520</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -4088,16 +4088,16 @@
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>31</v>
+        <v>701</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>35</v>
+        <v>718</v>
       </c>
     </row>
     <row r="107">
@@ -4111,16 +4111,16 @@
         <v>2015</v>
       </c>
       <c r="D107" t="n">
-        <v>1093</v>
+        <v>10</v>
       </c>
       <c r="E107" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
@@ -4134,16 +4134,16 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>1332</v>
+        <v>9019</v>
       </c>
       <c r="E108" t="n">
-        <v>2395</v>
+        <v>14470</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>3727</v>
+        <v>23489</v>
       </c>
     </row>
     <row r="109">
@@ -4157,16 +4157,16 @@
         <v>2015</v>
       </c>
       <c r="D109" t="n">
-        <v>208</v>
+        <v>94166</v>
       </c>
       <c r="E109" t="n">
-        <v>179</v>
+        <v>60415</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>387</v>
+        <v>154581</v>
       </c>
     </row>
     <row r="110">
@@ -4180,16 +4180,16 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>9305</v>
+        <v>15917</v>
       </c>
       <c r="E110" t="n">
-        <v>27479</v>
+        <v>340</v>
       </c>
       <c r="F110" t="n">
-        <v>434869</v>
+        <v>61920</v>
       </c>
       <c r="G110" t="n">
-        <v>471653</v>
+        <v>78177</v>
       </c>
     </row>
     <row r="111">
@@ -4203,16 +4203,16 @@
         <v>2015</v>
       </c>
       <c r="D111" t="n">
-        <v>3908</v>
+        <v>7075</v>
       </c>
       <c r="E111" t="n">
-        <v>1565</v>
+        <v>590</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>5473</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="112">
@@ -4226,16 +4226,16 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>32</v>
+        <v>77394</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>32</v>
+        <v>77891</v>
       </c>
     </row>
     <row r="113">
@@ -4249,16 +4249,16 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4272,16 +4272,16 @@
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>1771</v>
+        <v>2923</v>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>1350</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1791</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="115">
@@ -4295,16 +4295,16 @@
         <v>2015</v>
       </c>
       <c r="D115" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -4318,16 +4318,16 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>701</v>
+        <v>446</v>
       </c>
       <c r="E116" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>718</v>
+        <v>556</v>
       </c>
     </row>
     <row r="117">
@@ -4341,16 +4341,16 @@
         <v>2015</v>
       </c>
       <c r="D117" t="n">
-        <v>15917</v>
+        <v>32</v>
       </c>
       <c r="E117" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>61920</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>78177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -4364,16 +4364,16 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>451089</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>451090</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -4387,16 +4387,16 @@
         <v>2015</v>
       </c>
       <c r="D119" t="n">
-        <v>9</v>
+        <v>1771</v>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>15</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="120">
@@ -4413,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4433,16 +4433,16 @@
         <v>2015</v>
       </c>
       <c r="D121" t="n">
-        <v>77394</v>
+        <v>3908</v>
       </c>
       <c r="E121" t="n">
-        <v>497</v>
+        <v>1565</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>77891</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="122">
@@ -4456,16 +4456,16 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>5622</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>14825</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>20447</v>
       </c>
     </row>
     <row r="123">
@@ -4479,16 +4479,16 @@
         <v>2015</v>
       </c>
       <c r="D123" t="n">
-        <v>7075</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>590</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>451089</v>
       </c>
       <c r="G123" t="n">
-        <v>7665</v>
+        <v>451090</v>
       </c>
     </row>
     <row r="124">
@@ -4502,16 +4502,16 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="125">
@@ -4525,16 +4525,16 @@
         <v>2015</v>
       </c>
       <c r="D125" t="n">
-        <v>9019</v>
+        <v>506</v>
       </c>
       <c r="E125" t="n">
-        <v>14470</v>
+        <v>302</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>23489</v>
+        <v>808</v>
       </c>
     </row>
     <row r="126">
@@ -4548,16 +4548,16 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>2923</v>
+        <v>32667</v>
       </c>
       <c r="E126" t="n">
-        <v>1350</v>
+        <v>17</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>4273</v>
+        <v>32684</v>
       </c>
     </row>
     <row r="127">
@@ -4571,16 +4571,16 @@
         <v>2015</v>
       </c>
       <c r="D127" t="n">
-        <v>94166</v>
+        <v>88536</v>
       </c>
       <c r="E127" t="n">
-        <v>60415</v>
+        <v>28051</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>154581</v>
+        <v>116587</v>
       </c>
     </row>
     <row r="128">
@@ -4594,16 +4594,16 @@
         <v>2015</v>
       </c>
       <c r="D128" t="n">
-        <v>5622</v>
+        <v>1337</v>
       </c>
       <c r="E128" t="n">
-        <v>14825</v>
+        <v>159</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>20447</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="129">
@@ -4617,16 +4617,16 @@
         <v>2015</v>
       </c>
       <c r="D129" t="n">
-        <v>1737</v>
+        <v>330</v>
       </c>
       <c r="E129" t="n">
-        <v>1112</v>
+        <v>131</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>2849</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130">
@@ -4686,16 +4686,16 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>330</v>
+        <v>50389</v>
       </c>
       <c r="E132" t="n">
-        <v>131</v>
+        <v>25316</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>461</v>
+        <v>75705</v>
       </c>
     </row>
     <row r="133">
@@ -4709,16 +4709,16 @@
         <v>2015</v>
       </c>
       <c r="D133" t="n">
-        <v>88536</v>
+        <v>245</v>
       </c>
       <c r="E133" t="n">
-        <v>28051</v>
+        <v>190</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>116587</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134">
@@ -4732,16 +4732,16 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>50389</v>
+        <v>1561162</v>
       </c>
       <c r="E134" t="n">
-        <v>25316</v>
+        <v>6442</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1146108</v>
       </c>
       <c r="G134" t="n">
-        <v>75705</v>
+        <v>2713712</v>
       </c>
     </row>
     <row r="135">
@@ -4755,16 +4755,16 @@
         <v>2015</v>
       </c>
       <c r="D135" t="n">
-        <v>32667</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>32684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4778,16 +4778,16 @@
         <v>2015</v>
       </c>
       <c r="D136" t="n">
-        <v>506</v>
+        <v>2051096</v>
       </c>
       <c r="E136" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>808</v>
+        <v>2051096</v>
       </c>
     </row>
     <row r="137">
@@ -4801,16 +4801,16 @@
         <v>2015</v>
       </c>
       <c r="D137" t="n">
-        <v>1337</v>
+        <v>17322</v>
       </c>
       <c r="E137" t="n">
-        <v>159</v>
+        <v>2934</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1496</v>
+        <v>20256</v>
       </c>
     </row>
     <row r="138">
@@ -4824,16 +4824,16 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>245</v>
+        <v>9510</v>
       </c>
       <c r="E138" t="n">
-        <v>190</v>
+        <v>445</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>435</v>
+        <v>9955</v>
       </c>
     </row>
     <row r="139">
@@ -4847,16 +4847,16 @@
         <v>2015</v>
       </c>
       <c r="D139" t="n">
-        <v>17322</v>
+        <v>172</v>
       </c>
       <c r="E139" t="n">
-        <v>2934</v>
+        <v>37</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>20256</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140">
@@ -4893,16 +4893,16 @@
         <v>2015</v>
       </c>
       <c r="D141" t="n">
-        <v>9510</v>
+        <v>269</v>
       </c>
       <c r="E141" t="n">
-        <v>445</v>
+        <v>210</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>63174</v>
       </c>
       <c r="G141" t="n">
-        <v>9955</v>
+        <v>63653</v>
       </c>
     </row>
     <row r="142">
@@ -4916,16 +4916,16 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>269</v>
+        <v>14065</v>
       </c>
       <c r="E142" t="n">
-        <v>210</v>
+        <v>3303</v>
       </c>
       <c r="F142" t="n">
-        <v>63174</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>63653</v>
+        <v>17368</v>
       </c>
     </row>
     <row r="143">
@@ -4939,16 +4939,16 @@
         <v>2015</v>
       </c>
       <c r="D143" t="n">
-        <v>1561162</v>
+        <v>699</v>
       </c>
       <c r="E143" t="n">
-        <v>6442</v>
+        <v>641</v>
       </c>
       <c r="F143" t="n">
-        <v>1146108</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>2713712</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="144">
@@ -4962,16 +4962,16 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>14065</v>
+        <v>120</v>
       </c>
       <c r="E144" t="n">
-        <v>3303</v>
+        <v>118</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>17368</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145">
@@ -4985,16 +4985,16 @@
         <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>2051096</v>
+        <v>2598</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>2051096</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="146">
@@ -5008,16 +5008,16 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>699</v>
+        <v>314506</v>
       </c>
       <c r="E146" t="n">
-        <v>641</v>
+        <v>2088</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1340</v>
+        <v>316594</v>
       </c>
     </row>
     <row r="147">
@@ -5031,16 +5031,16 @@
         <v>2015</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>144737</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>145151</v>
       </c>
     </row>
     <row r="148">
@@ -5054,16 +5054,16 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5077,16 +5077,16 @@
         <v>2015</v>
       </c>
       <c r="D149" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>238</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -5100,16 +5100,16 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>2598</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>3030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5123,16 +5123,16 @@
         <v>2015</v>
       </c>
       <c r="D151" t="n">
-        <v>35332</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>220002</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>255450</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -5146,16 +5146,16 @@
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>314506</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>2088</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>316594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5169,16 +5169,16 @@
         <v>2015</v>
       </c>
       <c r="D153" t="n">
-        <v>144737</v>
+        <v>125</v>
       </c>
       <c r="E153" t="n">
-        <v>414</v>
+        <v>32</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>145151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154">
@@ -5192,16 +5192,16 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>125</v>
+        <v>14392</v>
       </c>
       <c r="E154" t="n">
-        <v>32</v>
+        <v>3119</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>157</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="155">
@@ -5215,16 +5215,16 @@
         <v>2015</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>35332</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>220002</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>255450</v>
       </c>
     </row>
     <row r="156">
@@ -5238,16 +5238,16 @@
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>309639</v>
+        <v>760</v>
       </c>
       <c r="E156" t="n">
-        <v>12581</v>
+        <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>3218234</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>3540454</v>
+        <v>777</v>
       </c>
     </row>
     <row r="157">
@@ -5261,16 +5261,16 @@
         <v>2015</v>
       </c>
       <c r="D157" t="n">
-        <v>169520</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>157046</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>326566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5284,16 +5284,16 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -5307,16 +5307,16 @@
         <v>2015</v>
       </c>
       <c r="D159" t="n">
-        <v>292</v>
+        <v>820</v>
       </c>
       <c r="E159" t="n">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>395</v>
+        <v>993</v>
       </c>
     </row>
     <row r="160">
@@ -5330,16 +5330,16 @@
         <v>2015</v>
       </c>
       <c r="D160" t="n">
-        <v>820</v>
+        <v>292</v>
       </c>
       <c r="E160" t="n">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>993</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161">
@@ -5353,16 +5353,16 @@
         <v>2015</v>
       </c>
       <c r="D161" t="n">
-        <v>760</v>
+        <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>777</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -5376,16 +5376,16 @@
         <v>2015</v>
       </c>
       <c r="D162" t="n">
-        <v>14392</v>
+        <v>8081</v>
       </c>
       <c r="E162" t="n">
-        <v>3119</v>
+        <v>10120</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>1133000</v>
       </c>
       <c r="G162" t="n">
-        <v>17511</v>
+        <v>1151201</v>
       </c>
     </row>
     <row r="163">
@@ -5399,16 +5399,16 @@
         <v>2015</v>
       </c>
       <c r="D163" t="n">
-        <v>8081</v>
+        <v>121645</v>
       </c>
       <c r="E163" t="n">
-        <v>10120</v>
+        <v>1096063</v>
       </c>
       <c r="F163" t="n">
-        <v>1133000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>1151201</v>
+        <v>1217708</v>
       </c>
     </row>
     <row r="164">
@@ -5422,16 +5422,16 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>263016</v>
       </c>
       <c r="E164" t="n">
-        <v>4</v>
+        <v>839</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1790427</v>
       </c>
       <c r="G164" t="n">
-        <v>5</v>
+        <v>2054282</v>
       </c>
     </row>
     <row r="165">
@@ -5445,16 +5445,16 @@
         <v>2015</v>
       </c>
       <c r="D165" t="n">
-        <v>263016</v>
+        <v>5798</v>
       </c>
       <c r="E165" t="n">
-        <v>839</v>
+        <v>11020</v>
       </c>
       <c r="F165" t="n">
-        <v>1790427</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>2054282</v>
+        <v>16818</v>
       </c>
     </row>
     <row r="166">
@@ -5468,16 +5468,16 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>44934</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>46326</v>
       </c>
     </row>
     <row r="167">
@@ -5491,16 +5491,16 @@
         <v>2015</v>
       </c>
       <c r="D167" t="n">
-        <v>48</v>
+        <v>309639</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>12581</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>3218234</v>
       </c>
       <c r="G167" t="n">
-        <v>49</v>
+        <v>3540454</v>
       </c>
     </row>
     <row r="168">
@@ -5514,16 +5514,16 @@
         <v>2015</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -5537,16 +5537,16 @@
         <v>2015</v>
       </c>
       <c r="D169" t="n">
-        <v>549729</v>
+        <v>696</v>
       </c>
       <c r="E169" t="n">
-        <v>5251</v>
+        <v>268</v>
       </c>
       <c r="F169" t="n">
-        <v>6563462</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>7118442</v>
+        <v>964</v>
       </c>
     </row>
     <row r="170">
@@ -5560,16 +5560,16 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>696</v>
+        <v>169520</v>
       </c>
       <c r="E170" t="n">
-        <v>268</v>
+        <v>157046</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>964</v>
+        <v>326566</v>
       </c>
     </row>
     <row r="171">
@@ -5583,16 +5583,16 @@
         <v>2015</v>
       </c>
       <c r="D171" t="n">
-        <v>4</v>
+        <v>73336</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>32701</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>106037</v>
       </c>
     </row>
     <row r="172">
@@ -5606,16 +5606,16 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>369540</v>
+        <v>549729</v>
       </c>
       <c r="E172" t="n">
-        <v>2898</v>
+        <v>5251</v>
       </c>
       <c r="F172" t="n">
-        <v>51999</v>
+        <v>6563462</v>
       </c>
       <c r="G172" t="n">
-        <v>424437</v>
+        <v>7118442</v>
       </c>
     </row>
     <row r="173">
@@ -5629,16 +5629,16 @@
         <v>2015</v>
       </c>
       <c r="D173" t="n">
-        <v>21953</v>
+        <v>1969</v>
       </c>
       <c r="E173" t="n">
-        <v>752</v>
+        <v>288</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>22705</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="174">
@@ -5652,16 +5652,16 @@
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>108261</v>
+        <v>211845</v>
       </c>
       <c r="E174" t="n">
-        <v>8271</v>
+        <v>2150</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>116532</v>
+        <v>213995</v>
       </c>
     </row>
     <row r="175">
@@ -5675,16 +5675,16 @@
         <v>2015</v>
       </c>
       <c r="D175" t="n">
-        <v>1969</v>
+        <v>108261</v>
       </c>
       <c r="E175" t="n">
-        <v>288</v>
+        <v>8271</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>2257</v>
+        <v>116532</v>
       </c>
     </row>
     <row r="176">
@@ -5721,16 +5721,16 @@
         <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>26</v>
+        <v>21953</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>26</v>
+        <v>22705</v>
       </c>
     </row>
     <row r="178">
@@ -5744,16 +5744,16 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5767,16 +5767,16 @@
         <v>2015</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180">
@@ -5790,16 +5790,16 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>2541352</v>
+        <v>665</v>
       </c>
       <c r="E180" t="n">
-        <v>212408</v>
+        <v>90</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>2753760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="181">
@@ -5813,16 +5813,16 @@
         <v>2015</v>
       </c>
       <c r="D181" t="n">
-        <v>114</v>
+        <v>2541352</v>
       </c>
       <c r="E181" t="n">
-        <v>82</v>
+        <v>212408</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>196</v>
+        <v>2753760</v>
       </c>
     </row>
     <row r="182">
@@ -5836,16 +5836,16 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>211845</v>
+        <v>26</v>
       </c>
       <c r="E182" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>213995</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183">
@@ -5859,16 +5859,16 @@
         <v>2015</v>
       </c>
       <c r="D183" t="n">
-        <v>3273</v>
+        <v>4</v>
       </c>
       <c r="E183" t="n">
-        <v>6502</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1609775</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -5882,16 +5882,16 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>477187</v>
+        <v>663</v>
       </c>
       <c r="E184" t="n">
-        <v>35779</v>
+        <v>421</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>512966</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="185">
@@ -5905,16 +5905,16 @@
         <v>2015</v>
       </c>
       <c r="D185" t="n">
-        <v>273202</v>
+        <v>477187</v>
       </c>
       <c r="E185" t="n">
-        <v>286168</v>
+        <v>35779</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>559370</v>
+        <v>512966</v>
       </c>
     </row>
     <row r="186">
@@ -5928,16 +5928,16 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>301</v>
+        <v>3273</v>
       </c>
       <c r="E186" t="n">
-        <v>79</v>
+        <v>6502</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="G186" t="n">
-        <v>380</v>
+        <v>1609775</v>
       </c>
     </row>
     <row r="187">
@@ -5951,16 +5951,16 @@
         <v>2015</v>
       </c>
       <c r="D187" t="n">
-        <v>107</v>
+        <v>123067</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>45870</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>107</v>
+        <v>168937</v>
       </c>
     </row>
     <row r="188">
@@ -5974,16 +5974,16 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>273202</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>286168</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>559370</v>
       </c>
     </row>
     <row r="189">
@@ -5997,16 +5997,16 @@
         <v>2015</v>
       </c>
       <c r="D189" t="n">
-        <v>173754</v>
+        <v>301</v>
       </c>
       <c r="E189" t="n">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>173989</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190">
@@ -6020,7 +6020,7 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191">
@@ -6046,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -6066,16 +6066,16 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>173754</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>173989</v>
       </c>
     </row>
     <row r="193">
@@ -6092,13 +6092,13 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -6112,16 +6112,16 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>267173</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>9866</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>2532032</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>2809071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -6135,16 +6135,16 @@
         <v>2015</v>
       </c>
       <c r="D195" t="n">
-        <v>121645</v>
+        <v>267173</v>
       </c>
       <c r="E195" t="n">
-        <v>1096063</v>
+        <v>9866</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>2532032</v>
       </c>
       <c r="G195" t="n">
-        <v>1217708</v>
+        <v>2809071</v>
       </c>
     </row>
     <row r="196">

--- a/user-data/displacement/displacement.xlsx
+++ b/user-data/displacement/displacement.xlsx
@@ -36,376 +36,1114 @@
     <t xml:space="preserve">value-4</t>
   </si>
   <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anguilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BES Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayman Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks &amp; Caicos Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">AF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua &amp; Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anguilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BES Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
     <t xml:space="preserve">GB</t>
@@ -414,726 +1152,6 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">GD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cayman Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turks &amp; Caicos Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">US</t>
   </si>
   <si>
@@ -1152,10 +1170,10 @@
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
-    <t xml:space="preserve">VC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
     <t xml:space="preserve">VE</t>
@@ -1164,40 +1182,22 @@
     <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
     <t xml:space="preserve">VG</t>
   </si>
   <si>
     <t xml:space="preserve">Virgin Islands (GB)</t>
   </si>
   <si>
-    <t xml:space="preserve">VN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">YE</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1696,16 +1696,16 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>663</v>
+        <v>257554</v>
       </c>
       <c r="E2" t="n">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1174306</v>
       </c>
       <c r="G2" t="n">
-        <v>1084</v>
+        <v>1431942</v>
       </c>
     </row>
     <row r="3">
@@ -1719,16 +1719,16 @@
         <v>2015</v>
       </c>
       <c r="D3" t="n">
-        <v>257554</v>
+        <v>104</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>830</v>
       </c>
       <c r="F3" t="n">
-        <v>1174306</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1431942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4">
@@ -1742,16 +1742,16 @@
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>94182</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6593</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>100775</v>
       </c>
     </row>
     <row r="5">
@@ -1765,16 +1765,16 @@
         <v>2015</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>15555</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>30143</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="6">
@@ -1788,16 +1788,16 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1811,16 +1811,16 @@
         <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>19319</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19385</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1834,16 +1834,16 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>15555</v>
+        <v>3207</v>
       </c>
       <c r="E8" t="n">
-        <v>30143</v>
+        <v>1077</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>45698</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="9">
@@ -1857,16 +1857,16 @@
         <v>2015</v>
       </c>
       <c r="D9" t="n">
-        <v>3207</v>
+        <v>19319</v>
       </c>
       <c r="E9" t="n">
-        <v>1077</v>
+        <v>66</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4284</v>
+        <v>19385</v>
       </c>
     </row>
     <row r="10">
@@ -1880,16 +1880,16 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>72216</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>80075</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152291</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1926,16 +1926,16 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>72216</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>80075</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>152291</v>
       </c>
     </row>
     <row r="13">
@@ -1972,16 +1972,16 @@
         <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>6798</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>98324</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>105145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1995,16 +1995,16 @@
         <v>2015</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
@@ -2041,16 +2041,16 @@
         <v>2015</v>
       </c>
       <c r="D17" t="n">
-        <v>35314</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>36009</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>71323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2064,16 +2064,16 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>34017</v>
+        <v>1809</v>
       </c>
       <c r="E18" t="n">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>34160</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="19">
@@ -2087,16 +2087,16 @@
         <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>16557</v>
+        <v>35314</v>
       </c>
       <c r="E19" t="n">
-        <v>9499</v>
+        <v>36009</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26056</v>
+        <v>71323</v>
       </c>
     </row>
     <row r="20">
@@ -2110,16 +2110,16 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
-        <v>113</v>
+        <v>720</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>360</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21">
@@ -2133,16 +2133,16 @@
         <v>2015</v>
       </c>
       <c r="D21" t="n">
-        <v>53363</v>
+        <v>530</v>
       </c>
       <c r="E21" t="n">
-        <v>2931</v>
+        <v>178</v>
       </c>
       <c r="F21" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>81294</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22">
@@ -2156,16 +2156,16 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2179,7 +2179,7 @@
         <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
     </row>
     <row r="24">
@@ -2202,16 +2202,16 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>775</v>
+        <v>6798</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>98324</v>
       </c>
       <c r="G24" t="n">
-        <v>775</v>
+        <v>105145</v>
       </c>
     </row>
     <row r="25">
@@ -2225,16 +2225,16 @@
         <v>2015</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="26">
@@ -2271,16 +2271,16 @@
         <v>2015</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2294,16 +2294,16 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>2130</v>
+        <v>16557</v>
       </c>
       <c r="E28" t="n">
-        <v>135</v>
+        <v>9499</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2265</v>
+        <v>26056</v>
       </c>
     </row>
     <row r="29">
@@ -2317,16 +2317,16 @@
         <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>1809</v>
+        <v>34017</v>
       </c>
       <c r="E29" t="n">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2088</v>
+        <v>34160</v>
       </c>
     </row>
     <row r="30">
@@ -2340,16 +2340,16 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>53363</v>
       </c>
       <c r="E30" t="n">
-        <v>720</v>
+        <v>2931</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G30" t="n">
-        <v>755</v>
+        <v>81294</v>
       </c>
     </row>
     <row r="31">
@@ -2363,16 +2363,16 @@
         <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>135888</v>
+        <v>1980</v>
       </c>
       <c r="E31" t="n">
-        <v>19642</v>
+        <v>649</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>308272</v>
       </c>
       <c r="G31" t="n">
-        <v>155530</v>
+        <v>310901</v>
       </c>
     </row>
     <row r="32">
@@ -2386,16 +2386,16 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>383095</v>
+        <v>76</v>
       </c>
       <c r="E32" t="n">
-        <v>983</v>
+        <v>27</v>
       </c>
       <c r="F32" t="n">
-        <v>1555112</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1939190</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -2409,16 +2409,16 @@
         <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>7330</v>
+        <v>342973</v>
       </c>
       <c r="E33" t="n">
-        <v>334</v>
+        <v>5373</v>
       </c>
       <c r="F33" t="n">
-        <v>216392</v>
+        <v>92657</v>
       </c>
       <c r="G33" t="n">
-        <v>224056</v>
+        <v>441003</v>
       </c>
     </row>
     <row r="34">
@@ -2432,16 +2432,16 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>44955</v>
+        <v>135888</v>
       </c>
       <c r="E34" t="n">
-        <v>4342</v>
+        <v>19642</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>49297</v>
+        <v>155530</v>
       </c>
     </row>
     <row r="35">
@@ -2455,16 +2455,16 @@
         <v>2015</v>
       </c>
       <c r="D35" t="n">
-        <v>73336</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>32701</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>106037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2478,16 +2478,16 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>1980</v>
+        <v>7330</v>
       </c>
       <c r="E36" t="n">
-        <v>649</v>
+        <v>334</v>
       </c>
       <c r="F36" t="n">
-        <v>308272</v>
+        <v>216392</v>
       </c>
       <c r="G36" t="n">
-        <v>310901</v>
+        <v>224056</v>
       </c>
     </row>
     <row r="37">
@@ -2501,16 +2501,16 @@
         <v>2015</v>
       </c>
       <c r="D37" t="n">
-        <v>1849</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>1064</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2913</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2524,16 +2524,16 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>342973</v>
+        <v>369540</v>
       </c>
       <c r="E38" t="n">
-        <v>5373</v>
+        <v>2898</v>
       </c>
       <c r="F38" t="n">
-        <v>92657</v>
+        <v>51999</v>
       </c>
       <c r="G38" t="n">
-        <v>441003</v>
+        <v>424437</v>
       </c>
     </row>
     <row r="39">
@@ -2547,16 +2547,16 @@
         <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>301052</v>
+        <v>1849</v>
       </c>
       <c r="E39" t="n">
-        <v>677</v>
+        <v>1064</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>301729</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="40">
@@ -2570,16 +2570,16 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>226</v>
+        <v>301052</v>
       </c>
       <c r="E40" t="n">
-        <v>115</v>
+        <v>677</v>
       </c>
       <c r="F40" t="n">
-        <v>6939067</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6939408</v>
+        <v>301729</v>
       </c>
     </row>
     <row r="41">
@@ -2593,16 +2593,16 @@
         <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>3616</v>
+        <v>226</v>
       </c>
       <c r="E41" t="n">
-        <v>3283</v>
+        <v>115</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6939067</v>
       </c>
       <c r="G41" t="n">
-        <v>6899</v>
+        <v>6939408</v>
       </c>
     </row>
     <row r="42">
@@ -2616,16 +2616,16 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2639,16 +2639,16 @@
         <v>2015</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44955</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4342</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>49297</v>
       </c>
     </row>
     <row r="44">
@@ -2662,16 +2662,16 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>48</v>
+        <v>3616</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>3283</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>78</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="45">
@@ -2685,16 +2685,16 @@
         <v>2015</v>
       </c>
       <c r="D45" t="n">
-        <v>7067</v>
+        <v>522</v>
       </c>
       <c r="E45" t="n">
-        <v>2252</v>
+        <v>53</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>9319</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46">
@@ -2708,16 +2708,16 @@
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>3644</v>
+        <v>303</v>
       </c>
       <c r="E46" t="n">
-        <v>659</v>
+        <v>25</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47">
@@ -2731,16 +2731,16 @@
         <v>2015</v>
       </c>
       <c r="D47" t="n">
-        <v>316115</v>
+        <v>48</v>
       </c>
       <c r="E47" t="n">
-        <v>420625</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>736740</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -2754,16 +2754,16 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>19365</v>
+        <v>7067</v>
       </c>
       <c r="E48" t="n">
-        <v>2641</v>
+        <v>2252</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>22006</v>
+        <v>9319</v>
       </c>
     </row>
     <row r="49">
@@ -2777,16 +2777,16 @@
         <v>2015</v>
       </c>
       <c r="D49" t="n">
-        <v>27326</v>
+        <v>3644</v>
       </c>
       <c r="E49" t="n">
-        <v>2948</v>
+        <v>659</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>30274</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="50">
@@ -2800,16 +2800,16 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>27326</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>2948</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>30274</v>
       </c>
     </row>
     <row r="51">
@@ -2823,16 +2823,16 @@
         <v>2015</v>
       </c>
       <c r="D51" t="n">
-        <v>615</v>
+        <v>19365</v>
       </c>
       <c r="E51" t="n">
-        <v>758</v>
+        <v>2641</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1373</v>
+        <v>22006</v>
       </c>
     </row>
     <row r="52">
@@ -2846,16 +2846,16 @@
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>94182</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>6593</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>100775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2869,16 +2869,16 @@
         <v>2015</v>
       </c>
       <c r="D53" t="n">
-        <v>121535</v>
+        <v>615</v>
       </c>
       <c r="E53" t="n">
-        <v>11583</v>
+        <v>758</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>133118</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="54">
@@ -2892,16 +2892,16 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>168</v>
+        <v>383095</v>
       </c>
       <c r="E54" t="n">
-        <v>86</v>
+        <v>983</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1555112</v>
       </c>
       <c r="G54" t="n">
-        <v>254</v>
+        <v>1939190</v>
       </c>
     </row>
     <row r="55">
@@ -2915,16 +2915,16 @@
         <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>212500</v>
+        <v>121535</v>
       </c>
       <c r="E55" t="n">
-        <v>38171</v>
+        <v>11583</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>250671</v>
+        <v>133118</v>
       </c>
     </row>
     <row r="56">
@@ -2938,16 +2938,16 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>2549</v>
+        <v>212500</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>38171</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2550</v>
+        <v>250671</v>
       </c>
     </row>
     <row r="57">
@@ -2961,16 +2961,16 @@
         <v>2015</v>
       </c>
       <c r="D57" t="n">
-        <v>5798</v>
+        <v>48</v>
       </c>
       <c r="E57" t="n">
-        <v>11020</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>16818</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
@@ -2984,16 +2984,16 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>736086</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>738217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3007,16 +3007,16 @@
         <v>2015</v>
       </c>
       <c r="D59" t="n">
-        <v>12703</v>
+        <v>2549</v>
       </c>
       <c r="E59" t="n">
-        <v>24366</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>37069</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="60">
@@ -3030,16 +3030,16 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61">
@@ -3053,16 +3053,16 @@
         <v>2015</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>736086</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>2131</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>14</v>
+        <v>738217</v>
       </c>
     </row>
     <row r="62">
@@ -3076,16 +3076,16 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>273126</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>63057</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>336183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -3099,16 +3099,16 @@
         <v>2015</v>
       </c>
       <c r="D63" t="n">
-        <v>943</v>
+        <v>12703</v>
       </c>
       <c r="E63" t="n">
-        <v>1941</v>
+        <v>24366</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>2884</v>
+        <v>37069</v>
       </c>
     </row>
     <row r="64">
@@ -3122,16 +3122,16 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>123067</v>
+        <v>273126</v>
       </c>
       <c r="E64" t="n">
-        <v>45870</v>
+        <v>63057</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>168937</v>
+        <v>336183</v>
       </c>
     </row>
     <row r="65">
@@ -3145,16 +3145,16 @@
         <v>2015</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>943</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1941</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="66">
@@ -3168,16 +3168,16 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>1979</v>
+        <v>7854</v>
       </c>
       <c r="E66" t="n">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>268416</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>271128</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="67">
@@ -3191,16 +3191,16 @@
         <v>2015</v>
       </c>
       <c r="D67" t="n">
-        <v>17406</v>
+        <v>1979</v>
       </c>
       <c r="E67" t="n">
-        <v>1859</v>
+        <v>733</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>268416</v>
       </c>
       <c r="G67" t="n">
-        <v>19265</v>
+        <v>271128</v>
       </c>
     </row>
     <row r="68">
@@ -3214,16 +3214,16 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>7854</v>
+        <v>316115</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>420625</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>7854</v>
+        <v>736740</v>
       </c>
     </row>
     <row r="69">
@@ -3237,16 +3237,16 @@
         <v>2015</v>
       </c>
       <c r="D69" t="n">
-        <v>8839</v>
+        <v>17406</v>
       </c>
       <c r="E69" t="n">
-        <v>198</v>
+        <v>1859</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>9037</v>
+        <v>19265</v>
       </c>
     </row>
     <row r="70">
@@ -3260,16 +3260,16 @@
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>30239</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>26141</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>56380</v>
       </c>
     </row>
     <row r="71">
@@ -3283,16 +3283,16 @@
         <v>2015</v>
       </c>
       <c r="D71" t="n">
-        <v>30239</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>26141</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>56380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3329,16 +3329,16 @@
         <v>2015</v>
       </c>
       <c r="D73" t="n">
-        <v>8684</v>
+        <v>8839</v>
       </c>
       <c r="E73" t="n">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>8807</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="74">
@@ -3352,16 +3352,16 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>8684</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>8807</v>
       </c>
     </row>
     <row r="75">
@@ -3375,16 +3375,16 @@
         <v>2015</v>
       </c>
       <c r="D75" t="n">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>2315</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2448</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -3398,16 +3398,16 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>174000</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>174039</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -3421,16 +3421,16 @@
         <v>2015</v>
       </c>
       <c r="D77" t="n">
-        <v>522</v>
+        <v>30</v>
       </c>
       <c r="E77" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>174000</v>
       </c>
       <c r="G77" t="n">
-        <v>575</v>
+        <v>174039</v>
       </c>
     </row>
     <row r="78">
@@ -3444,16 +3444,16 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="E78" t="n">
-        <v>11</v>
+        <v>2315</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>14</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="79">
@@ -3490,16 +3490,16 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>5957</v>
+        <v>179</v>
       </c>
       <c r="E80" t="n">
-        <v>7591</v>
+        <v>161</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>13548</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81">
@@ -3513,16 +3513,16 @@
         <v>2015</v>
       </c>
       <c r="D81" t="n">
-        <v>6125</v>
+        <v>201381</v>
       </c>
       <c r="E81" t="n">
-        <v>5055</v>
+        <v>6480</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>11180</v>
+        <v>207861</v>
       </c>
     </row>
     <row r="82">
@@ -3536,16 +3536,16 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>38500</v>
+        <v>5957</v>
       </c>
       <c r="E82" t="n">
-        <v>6591</v>
+        <v>7591</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>45091</v>
+        <v>13548</v>
       </c>
     </row>
     <row r="83">
@@ -3559,16 +3559,16 @@
         <v>2015</v>
       </c>
       <c r="D83" t="n">
-        <v>201381</v>
+        <v>979437</v>
       </c>
       <c r="E83" t="n">
-        <v>6480</v>
+        <v>42</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>207861</v>
+        <v>979479</v>
       </c>
     </row>
     <row r="84">
@@ -3605,16 +3605,16 @@
         <v>2015</v>
       </c>
       <c r="D85" t="n">
-        <v>979437</v>
+        <v>6125</v>
       </c>
       <c r="E85" t="n">
-        <v>42</v>
+        <v>5055</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>979479</v>
+        <v>11180</v>
       </c>
     </row>
     <row r="86">
@@ -3628,16 +3628,16 @@
         <v>2015</v>
       </c>
       <c r="D86" t="n">
-        <v>179</v>
+        <v>38500</v>
       </c>
       <c r="E86" t="n">
-        <v>161</v>
+        <v>6591</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>340</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="87">
@@ -3697,16 +3697,16 @@
         <v>2015</v>
       </c>
       <c r="D89" t="n">
-        <v>2781479</v>
+        <v>2474</v>
       </c>
       <c r="E89" t="n">
-        <v>24935</v>
+        <v>13831</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2806414</v>
+        <v>16305</v>
       </c>
     </row>
     <row r="90">
@@ -3720,16 +3720,16 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>2474</v>
+        <v>2781479</v>
       </c>
       <c r="E90" t="n">
-        <v>13831</v>
+        <v>24935</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>16305</v>
+        <v>2806414</v>
       </c>
     </row>
     <row r="91">
@@ -3743,16 +3743,16 @@
         <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>553912</v>
+        <v>708</v>
       </c>
       <c r="E91" t="n">
-        <v>39969</v>
+        <v>97</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>593881</v>
+        <v>805</v>
       </c>
     </row>
     <row r="92">
@@ -3766,16 +3766,16 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>354</v>
+        <v>553912</v>
       </c>
       <c r="E92" t="n">
-        <v>158</v>
+        <v>39969</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>512</v>
+        <v>593881</v>
       </c>
     </row>
     <row r="93">
@@ -3789,16 +3789,16 @@
         <v>2015</v>
       </c>
       <c r="D93" t="n">
-        <v>76</v>
+        <v>1463</v>
       </c>
       <c r="E93" t="n">
-        <v>27</v>
+        <v>5442</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>103</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="94">
@@ -3812,16 +3812,16 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="95">
@@ -3835,16 +3835,16 @@
         <v>2015</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96">
@@ -3858,16 +3858,16 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>1463</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>5442</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>6905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3881,16 +3881,16 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>741</v>
+        <v>208</v>
       </c>
       <c r="E97" t="n">
-        <v>900</v>
+        <v>179</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1641</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98">
@@ -3904,16 +3904,16 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>1523523</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>12139</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>16</v>
+        <v>1535662</v>
       </c>
     </row>
     <row r="99">
@@ -3927,16 +3927,16 @@
         <v>2015</v>
       </c>
       <c r="D99" t="n">
-        <v>708</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>805</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
@@ -3950,16 +3950,16 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>36505</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>36520</v>
       </c>
     </row>
     <row r="101">
@@ -3973,16 +3973,16 @@
         <v>2015</v>
       </c>
       <c r="D101" t="n">
-        <v>1523523</v>
+        <v>9305</v>
       </c>
       <c r="E101" t="n">
-        <v>12139</v>
+        <v>27479</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>434869</v>
       </c>
       <c r="G101" t="n">
-        <v>1535662</v>
+        <v>471653</v>
       </c>
     </row>
     <row r="102">
@@ -3996,16 +3996,16 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103">
@@ -4019,16 +4019,16 @@
         <v>2015</v>
       </c>
       <c r="D103" t="n">
-        <v>150</v>
+        <v>1093</v>
       </c>
       <c r="E103" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>247</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="104">
@@ -4042,16 +4042,16 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>784</v>
+        <v>1332</v>
       </c>
       <c r="E104" t="n">
-        <v>608</v>
+        <v>2395</v>
       </c>
       <c r="F104" t="n">
-        <v>44934</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>46326</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="105">
@@ -4065,16 +4065,16 @@
         <v>2015</v>
       </c>
       <c r="D105" t="n">
-        <v>36505</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>36520</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -4088,16 +4088,16 @@
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>31</v>
+        <v>701</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>35</v>
+        <v>718</v>
       </c>
     </row>
     <row r="107">
@@ -4111,16 +4111,16 @@
         <v>2015</v>
       </c>
       <c r="D107" t="n">
-        <v>1093</v>
+        <v>10</v>
       </c>
       <c r="E107" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
@@ -4134,16 +4134,16 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>1332</v>
+        <v>9019</v>
       </c>
       <c r="E108" t="n">
-        <v>2395</v>
+        <v>14470</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>3727</v>
+        <v>23489</v>
       </c>
     </row>
     <row r="109">
@@ -4157,16 +4157,16 @@
         <v>2015</v>
       </c>
       <c r="D109" t="n">
-        <v>208</v>
+        <v>94166</v>
       </c>
       <c r="E109" t="n">
-        <v>179</v>
+        <v>60415</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>387</v>
+        <v>154581</v>
       </c>
     </row>
     <row r="110">
@@ -4180,16 +4180,16 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>9305</v>
+        <v>15917</v>
       </c>
       <c r="E110" t="n">
-        <v>27479</v>
+        <v>340</v>
       </c>
       <c r="F110" t="n">
-        <v>434869</v>
+        <v>61920</v>
       </c>
       <c r="G110" t="n">
-        <v>471653</v>
+        <v>78177</v>
       </c>
     </row>
     <row r="111">
@@ -4203,16 +4203,16 @@
         <v>2015</v>
       </c>
       <c r="D111" t="n">
-        <v>3908</v>
+        <v>7075</v>
       </c>
       <c r="E111" t="n">
-        <v>1565</v>
+        <v>590</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>5473</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="112">
@@ -4226,16 +4226,16 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>32</v>
+        <v>77394</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>32</v>
+        <v>77891</v>
       </c>
     </row>
     <row r="113">
@@ -4249,16 +4249,16 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4272,16 +4272,16 @@
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>1771</v>
+        <v>2923</v>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>1350</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1791</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="115">
@@ -4295,16 +4295,16 @@
         <v>2015</v>
       </c>
       <c r="D115" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -4318,16 +4318,16 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>701</v>
+        <v>446</v>
       </c>
       <c r="E116" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>718</v>
+        <v>556</v>
       </c>
     </row>
     <row r="117">
@@ -4341,16 +4341,16 @@
         <v>2015</v>
       </c>
       <c r="D117" t="n">
-        <v>15917</v>
+        <v>32</v>
       </c>
       <c r="E117" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>61920</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>78177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -4364,16 +4364,16 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>451089</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>451090</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -4387,16 +4387,16 @@
         <v>2015</v>
       </c>
       <c r="D119" t="n">
-        <v>9</v>
+        <v>1771</v>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>15</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="120">
@@ -4413,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4433,16 +4433,16 @@
         <v>2015</v>
       </c>
       <c r="D121" t="n">
-        <v>77394</v>
+        <v>3908</v>
       </c>
       <c r="E121" t="n">
-        <v>497</v>
+        <v>1565</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>77891</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="122">
@@ -4456,16 +4456,16 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>5622</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>14825</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>20447</v>
       </c>
     </row>
     <row r="123">
@@ -4479,16 +4479,16 @@
         <v>2015</v>
       </c>
       <c r="D123" t="n">
-        <v>7075</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>590</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>451089</v>
       </c>
       <c r="G123" t="n">
-        <v>7665</v>
+        <v>451090</v>
       </c>
     </row>
     <row r="124">
@@ -4502,16 +4502,16 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="125">
@@ -4525,16 +4525,16 @@
         <v>2015</v>
       </c>
       <c r="D125" t="n">
-        <v>9019</v>
+        <v>506</v>
       </c>
       <c r="E125" t="n">
-        <v>14470</v>
+        <v>302</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>23489</v>
+        <v>808</v>
       </c>
     </row>
     <row r="126">
@@ -4548,16 +4548,16 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>2923</v>
+        <v>32667</v>
       </c>
       <c r="E126" t="n">
-        <v>1350</v>
+        <v>17</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>4273</v>
+        <v>32684</v>
       </c>
     </row>
     <row r="127">
@@ -4571,16 +4571,16 @@
         <v>2015</v>
       </c>
       <c r="D127" t="n">
-        <v>94166</v>
+        <v>88536</v>
       </c>
       <c r="E127" t="n">
-        <v>60415</v>
+        <v>28051</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>154581</v>
+        <v>116587</v>
       </c>
     </row>
     <row r="128">
@@ -4594,16 +4594,16 @@
         <v>2015</v>
       </c>
       <c r="D128" t="n">
-        <v>5622</v>
+        <v>1337</v>
       </c>
       <c r="E128" t="n">
-        <v>14825</v>
+        <v>159</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>20447</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="129">
@@ -4617,16 +4617,16 @@
         <v>2015</v>
       </c>
       <c r="D129" t="n">
-        <v>1737</v>
+        <v>330</v>
       </c>
       <c r="E129" t="n">
-        <v>1112</v>
+        <v>131</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>2849</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130">
@@ -4686,16 +4686,16 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>330</v>
+        <v>50389</v>
       </c>
       <c r="E132" t="n">
-        <v>131</v>
+        <v>25316</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>461</v>
+        <v>75705</v>
       </c>
     </row>
     <row r="133">
@@ -4709,16 +4709,16 @@
         <v>2015</v>
       </c>
       <c r="D133" t="n">
-        <v>88536</v>
+        <v>245</v>
       </c>
       <c r="E133" t="n">
-        <v>28051</v>
+        <v>190</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>116587</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134">
@@ -4732,16 +4732,16 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>50389</v>
+        <v>1561162</v>
       </c>
       <c r="E134" t="n">
-        <v>25316</v>
+        <v>6442</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1146108</v>
       </c>
       <c r="G134" t="n">
-        <v>75705</v>
+        <v>2713712</v>
       </c>
     </row>
     <row r="135">
@@ -4755,16 +4755,16 @@
         <v>2015</v>
       </c>
       <c r="D135" t="n">
-        <v>32667</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>32684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4778,16 +4778,16 @@
         <v>2015</v>
       </c>
       <c r="D136" t="n">
-        <v>506</v>
+        <v>2051096</v>
       </c>
       <c r="E136" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>808</v>
+        <v>2051096</v>
       </c>
     </row>
     <row r="137">
@@ -4801,16 +4801,16 @@
         <v>2015</v>
       </c>
       <c r="D137" t="n">
-        <v>1337</v>
+        <v>17322</v>
       </c>
       <c r="E137" t="n">
-        <v>159</v>
+        <v>2934</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1496</v>
+        <v>20256</v>
       </c>
     </row>
     <row r="138">
@@ -4824,16 +4824,16 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>245</v>
+        <v>9510</v>
       </c>
       <c r="E138" t="n">
-        <v>190</v>
+        <v>445</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>435</v>
+        <v>9955</v>
       </c>
     </row>
     <row r="139">
@@ -4847,16 +4847,16 @@
         <v>2015</v>
       </c>
       <c r="D139" t="n">
-        <v>17322</v>
+        <v>172</v>
       </c>
       <c r="E139" t="n">
-        <v>2934</v>
+        <v>37</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>20256</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140">
@@ -4893,16 +4893,16 @@
         <v>2015</v>
       </c>
       <c r="D141" t="n">
-        <v>9510</v>
+        <v>269</v>
       </c>
       <c r="E141" t="n">
-        <v>445</v>
+        <v>210</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>63174</v>
       </c>
       <c r="G141" t="n">
-        <v>9955</v>
+        <v>63653</v>
       </c>
     </row>
     <row r="142">
@@ -4916,16 +4916,16 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>269</v>
+        <v>14065</v>
       </c>
       <c r="E142" t="n">
-        <v>210</v>
+        <v>3303</v>
       </c>
       <c r="F142" t="n">
-        <v>63174</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>63653</v>
+        <v>17368</v>
       </c>
     </row>
     <row r="143">
@@ -4939,16 +4939,16 @@
         <v>2015</v>
       </c>
       <c r="D143" t="n">
-        <v>1561162</v>
+        <v>699</v>
       </c>
       <c r="E143" t="n">
-        <v>6442</v>
+        <v>641</v>
       </c>
       <c r="F143" t="n">
-        <v>1146108</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>2713712</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="144">
@@ -4962,16 +4962,16 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>14065</v>
+        <v>120</v>
       </c>
       <c r="E144" t="n">
-        <v>3303</v>
+        <v>118</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>17368</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145">
@@ -4985,16 +4985,16 @@
         <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>2051096</v>
+        <v>2598</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>2051096</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="146">
@@ -5008,16 +5008,16 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>699</v>
+        <v>314506</v>
       </c>
       <c r="E146" t="n">
-        <v>641</v>
+        <v>2088</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1340</v>
+        <v>316594</v>
       </c>
     </row>
     <row r="147">
@@ -5031,16 +5031,16 @@
         <v>2015</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>144737</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>145151</v>
       </c>
     </row>
     <row r="148">
@@ -5054,16 +5054,16 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5077,16 +5077,16 @@
         <v>2015</v>
       </c>
       <c r="D149" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>238</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -5100,16 +5100,16 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>2598</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>3030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5123,16 +5123,16 @@
         <v>2015</v>
       </c>
       <c r="D151" t="n">
-        <v>35332</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>220002</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>255450</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -5146,16 +5146,16 @@
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>314506</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>2088</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>316594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5169,16 +5169,16 @@
         <v>2015</v>
       </c>
       <c r="D153" t="n">
-        <v>144737</v>
+        <v>125</v>
       </c>
       <c r="E153" t="n">
-        <v>414</v>
+        <v>32</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>145151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154">
@@ -5192,16 +5192,16 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>125</v>
+        <v>14392</v>
       </c>
       <c r="E154" t="n">
-        <v>32</v>
+        <v>3119</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>157</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="155">
@@ -5215,16 +5215,16 @@
         <v>2015</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>35332</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>220002</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>255450</v>
       </c>
     </row>
     <row r="156">
@@ -5238,16 +5238,16 @@
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>309639</v>
+        <v>760</v>
       </c>
       <c r="E156" t="n">
-        <v>12581</v>
+        <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>3218234</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>3540454</v>
+        <v>777</v>
       </c>
     </row>
     <row r="157">
@@ -5261,16 +5261,16 @@
         <v>2015</v>
       </c>
       <c r="D157" t="n">
-        <v>169520</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>157046</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>326566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5284,16 +5284,16 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -5307,16 +5307,16 @@
         <v>2015</v>
       </c>
       <c r="D159" t="n">
-        <v>292</v>
+        <v>820</v>
       </c>
       <c r="E159" t="n">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>395</v>
+        <v>993</v>
       </c>
     </row>
     <row r="160">
@@ -5330,16 +5330,16 @@
         <v>2015</v>
       </c>
       <c r="D160" t="n">
-        <v>820</v>
+        <v>292</v>
       </c>
       <c r="E160" t="n">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>993</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161">
@@ -5353,16 +5353,16 @@
         <v>2015</v>
       </c>
       <c r="D161" t="n">
-        <v>760</v>
+        <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>777</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -5376,16 +5376,16 @@
         <v>2015</v>
       </c>
       <c r="D162" t="n">
-        <v>14392</v>
+        <v>8081</v>
       </c>
       <c r="E162" t="n">
-        <v>3119</v>
+        <v>10120</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>1133000</v>
       </c>
       <c r="G162" t="n">
-        <v>17511</v>
+        <v>1151201</v>
       </c>
     </row>
     <row r="163">
@@ -5399,16 +5399,16 @@
         <v>2015</v>
       </c>
       <c r="D163" t="n">
-        <v>8081</v>
+        <v>121645</v>
       </c>
       <c r="E163" t="n">
-        <v>10120</v>
+        <v>1096063</v>
       </c>
       <c r="F163" t="n">
-        <v>1133000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>1151201</v>
+        <v>1217708</v>
       </c>
     </row>
     <row r="164">
@@ -5422,16 +5422,16 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>263016</v>
       </c>
       <c r="E164" t="n">
-        <v>4</v>
+        <v>839</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1790427</v>
       </c>
       <c r="G164" t="n">
-        <v>5</v>
+        <v>2054282</v>
       </c>
     </row>
     <row r="165">
@@ -5445,16 +5445,16 @@
         <v>2015</v>
       </c>
       <c r="D165" t="n">
-        <v>263016</v>
+        <v>5798</v>
       </c>
       <c r="E165" t="n">
-        <v>839</v>
+        <v>11020</v>
       </c>
       <c r="F165" t="n">
-        <v>1790427</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>2054282</v>
+        <v>16818</v>
       </c>
     </row>
     <row r="166">
@@ -5468,16 +5468,16 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>44934</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>46326</v>
       </c>
     </row>
     <row r="167">
@@ -5491,16 +5491,16 @@
         <v>2015</v>
       </c>
       <c r="D167" t="n">
-        <v>48</v>
+        <v>309639</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>12581</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>3218234</v>
       </c>
       <c r="G167" t="n">
-        <v>49</v>
+        <v>3540454</v>
       </c>
     </row>
     <row r="168">
@@ -5514,16 +5514,16 @@
         <v>2015</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -5537,16 +5537,16 @@
         <v>2015</v>
       </c>
       <c r="D169" t="n">
-        <v>549729</v>
+        <v>696</v>
       </c>
       <c r="E169" t="n">
-        <v>5251</v>
+        <v>268</v>
       </c>
       <c r="F169" t="n">
-        <v>6563462</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>7118442</v>
+        <v>964</v>
       </c>
     </row>
     <row r="170">
@@ -5560,16 +5560,16 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>696</v>
+        <v>169520</v>
       </c>
       <c r="E170" t="n">
-        <v>268</v>
+        <v>157046</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>964</v>
+        <v>326566</v>
       </c>
     </row>
     <row r="171">
@@ -5583,16 +5583,16 @@
         <v>2015</v>
       </c>
       <c r="D171" t="n">
-        <v>4</v>
+        <v>73336</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>32701</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>106037</v>
       </c>
     </row>
     <row r="172">
@@ -5606,16 +5606,16 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>369540</v>
+        <v>549729</v>
       </c>
       <c r="E172" t="n">
-        <v>2898</v>
+        <v>5251</v>
       </c>
       <c r="F172" t="n">
-        <v>51999</v>
+        <v>6563462</v>
       </c>
       <c r="G172" t="n">
-        <v>424437</v>
+        <v>7118442</v>
       </c>
     </row>
     <row r="173">
@@ -5629,16 +5629,16 @@
         <v>2015</v>
       </c>
       <c r="D173" t="n">
-        <v>21953</v>
+        <v>1969</v>
       </c>
       <c r="E173" t="n">
-        <v>752</v>
+        <v>288</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>22705</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="174">
@@ -5652,16 +5652,16 @@
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>108261</v>
+        <v>211845</v>
       </c>
       <c r="E174" t="n">
-        <v>8271</v>
+        <v>2150</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>116532</v>
+        <v>213995</v>
       </c>
     </row>
     <row r="175">
@@ -5675,16 +5675,16 @@
         <v>2015</v>
       </c>
       <c r="D175" t="n">
-        <v>1969</v>
+        <v>108261</v>
       </c>
       <c r="E175" t="n">
-        <v>288</v>
+        <v>8271</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>2257</v>
+        <v>116532</v>
       </c>
     </row>
     <row r="176">
@@ -5721,16 +5721,16 @@
         <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>26</v>
+        <v>21953</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>26</v>
+        <v>22705</v>
       </c>
     </row>
     <row r="178">
@@ -5744,16 +5744,16 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5767,16 +5767,16 @@
         <v>2015</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180">
@@ -5790,16 +5790,16 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>2541352</v>
+        <v>665</v>
       </c>
       <c r="E180" t="n">
-        <v>212408</v>
+        <v>90</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>2753760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="181">
@@ -5813,16 +5813,16 @@
         <v>2015</v>
       </c>
       <c r="D181" t="n">
-        <v>114</v>
+        <v>2541352</v>
       </c>
       <c r="E181" t="n">
-        <v>82</v>
+        <v>212408</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>196</v>
+        <v>2753760</v>
       </c>
     </row>
     <row r="182">
@@ -5836,16 +5836,16 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>211845</v>
+        <v>26</v>
       </c>
       <c r="E182" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>213995</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183">
@@ -5859,16 +5859,16 @@
         <v>2015</v>
       </c>
       <c r="D183" t="n">
-        <v>3273</v>
+        <v>4</v>
       </c>
       <c r="E183" t="n">
-        <v>6502</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1609775</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -5882,16 +5882,16 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>477187</v>
+        <v>663</v>
       </c>
       <c r="E184" t="n">
-        <v>35779</v>
+        <v>421</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>512966</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="185">
@@ -5905,16 +5905,16 @@
         <v>2015</v>
       </c>
       <c r="D185" t="n">
-        <v>273202</v>
+        <v>477187</v>
       </c>
       <c r="E185" t="n">
-        <v>286168</v>
+        <v>35779</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>559370</v>
+        <v>512966</v>
       </c>
     </row>
     <row r="186">
@@ -5928,16 +5928,16 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>301</v>
+        <v>3273</v>
       </c>
       <c r="E186" t="n">
-        <v>79</v>
+        <v>6502</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="G186" t="n">
-        <v>380</v>
+        <v>1609775</v>
       </c>
     </row>
     <row r="187">
@@ -5951,16 +5951,16 @@
         <v>2015</v>
       </c>
       <c r="D187" t="n">
-        <v>107</v>
+        <v>123067</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>45870</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>107</v>
+        <v>168937</v>
       </c>
     </row>
     <row r="188">
@@ -5974,16 +5974,16 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>273202</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>286168</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>559370</v>
       </c>
     </row>
     <row r="189">
@@ -5997,16 +5997,16 @@
         <v>2015</v>
       </c>
       <c r="D189" t="n">
-        <v>173754</v>
+        <v>301</v>
       </c>
       <c r="E189" t="n">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>173989</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190">
@@ -6020,7 +6020,7 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191">
@@ -6046,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -6066,16 +6066,16 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>173754</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>173989</v>
       </c>
     </row>
     <row r="193">
@@ -6092,13 +6092,13 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -6112,16 +6112,16 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>267173</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>9866</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>2532032</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>2809071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -6135,16 +6135,16 @@
         <v>2015</v>
       </c>
       <c r="D195" t="n">
-        <v>121645</v>
+        <v>267173</v>
       </c>
       <c r="E195" t="n">
-        <v>1096063</v>
+        <v>9866</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>2532032</v>
       </c>
       <c r="G195" t="n">
-        <v>1217708</v>
+        <v>2809071</v>
       </c>
     </row>
     <row r="196">

--- a/user-data/displacement/displacement.xlsx
+++ b/user-data/displacement/displacement.xlsx
@@ -1555,7 +1555,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 59</t>
+    <t xml:space="preserve">Source: 60</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/displacement/displacement.xlsx
+++ b/user-data/displacement/displacement.xlsx
@@ -1555,7 +1555,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 60</t>
+    <t xml:space="preserve">Source: 61</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/displacement/displacement.xlsx
+++ b/user-data/displacement/displacement.xlsx
@@ -1555,7 +1555,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 59</t>
+    <t xml:space="preserve">Source: 61</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/displacement/displacement.xlsx
+++ b/user-data/displacement/displacement.xlsx
@@ -1555,7 +1555,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 61</t>
+    <t xml:space="preserve">Source: 60</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
